--- a/Hash/data/compare.xlsx
+++ b/Hash/data/compare.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="79" documentId="11_AD4DF75460589BCAC7600CF45E1D49C85BDEDDBB" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FE333F94-A73C-4835-A1AC-C999550731D7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -5966,26 +5966,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.15234375" customWidth="1"/>
+    <col min="2" max="2" width="17.3046875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.84375" customWidth="1"/>
+    <col min="5" max="5" width="14.69140625" customWidth="1"/>
+    <col min="6" max="6" width="22.3828125" customWidth="1"/>
+    <col min="7" max="7" width="16.3828125" customWidth="1"/>
+    <col min="8" max="8" width="24.53515625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.15234375" customWidth="1"/>
+    <col min="13" max="13" width="9.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>11</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>12</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>13</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>14</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>15</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>16</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>17</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>18</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>19</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>20</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>21</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>22</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>23</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>24</v>
       </c>
@@ -6845,12 +6845,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
